--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/bd1/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B081C1EC-8ADE-0B4B-A58E-26556CAFD379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4218E7-1EF5-A148-9FC2-DC835B28065C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{A6EAA84D-6E98-BB4B-8698-E4F48E48897D}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t xml:space="preserve"> Introduction, Diagramme entité-relation </t>
   </si>
   <si>
-    <t xml:space="preserve"> Créer un BD </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t xml:space="preserve"> 02 févr </t>
   </si>
   <si>
-    <t xml:space="preserve"> Opérations arithm, chaînes, REGEX </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Atelier 4 - formatif formel </t>
   </si>
   <si>
@@ -306,6 +300,12 @@
   </si>
   <si>
     <t xml:space="preserve"> **TP à remettre cours 27** </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Créer une BD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Opérations arithmétiques, chaînes, REGEX </t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -691,7 +691,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -732,39 +732,39 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -775,48 +775,48 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>1.5</v>
       </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>2.1</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -827,48 +827,48 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>2.2000000000000002</v>
       </c>
       <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>2.2999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -879,48 +879,48 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>2.4</v>
       </c>
       <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>2.5</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -931,48 +931,48 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>2.5</v>
       </c>
       <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>2.6</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -983,48 +983,48 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1035,48 +1035,48 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1087,48 +1087,48 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>4.0999999999999996</v>
       </c>
       <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
         <v>50</v>
       </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" t="s">
-        <v>52</v>
-      </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>4.2</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1139,48 +1139,48 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18">
         <v>4.3</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1191,45 +1191,45 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
         <v>59</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>61</v>
-      </c>
-      <c r="F20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1240,48 +1240,48 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22">
         <v>5.2</v>
       </c>
       <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s">
         <v>67</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1292,48 +1292,48 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24">
         <v>5.3</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25">
         <v>5.3</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1344,45 +1344,45 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1393,48 +1393,48 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1445,48 +1445,48 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/bd1/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4218E7-1EF5-A148-9FC2-DC835B28065C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA6FAA3-3D96-B644-9381-69DC077765B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{A6EAA84D-6E98-BB4B-8698-E4F48E48897D}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t xml:space="preserve"> Remises </t>
   </si>
   <si>
-    <t xml:space="preserve"> 17 janv </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.1, 1.2 </t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> 19 janv </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.2 à 1.4 </t>
   </si>
   <si>
@@ -83,24 +77,15 @@
     <t xml:space="preserve"> Atelier 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 24 janv </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Clés étrangères et relations </t>
   </si>
   <si>
     <t xml:space="preserve"> Atelier 2 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 26-janv </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Create/Update/Delete </t>
   </si>
   <si>
-    <t xml:space="preserve"> 31 janv </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sélection simple, filtrage et logique </t>
   </si>
   <si>
@@ -110,15 +95,9 @@
     <t xml:space="preserve"> Atelier 3 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 02 févr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Atelier 4 - formatif formel </t>
   </si>
   <si>
-    <t xml:space="preserve"> 07 févr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Dates </t>
   </si>
   <si>
@@ -128,48 +107,27 @@
     <t xml:space="preserve"> Atelier 4 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 09-févr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Jointures et aggrégats </t>
   </si>
   <si>
-    <t xml:space="preserve"> 14 févr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Atelier 6 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 16 févr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Fonctions statistiques </t>
   </si>
   <si>
     <t xml:space="preserve"> Atelier 7 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 21 févr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Examen de pratique </t>
   </si>
   <si>
-    <t xml:space="preserve"> 23 févr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Révision de tout avant l'examen </t>
   </si>
   <si>
-    <t xml:space="preserve"> 28 févr </t>
-  </si>
-  <si>
     <t xml:space="preserve">Examen sommatif requêtes </t>
   </si>
   <si>
-    <t xml:space="preserve"> 01 mars </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 3.1 à 3.3 </t>
   </si>
   <si>
@@ -179,9 +137,6 @@
     <t xml:space="preserve"> Sauvegarder/restaurer une BD </t>
   </si>
   <si>
-    <t xml:space="preserve"> 13 mars </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Contraintes intégrités </t>
   </si>
   <si>
@@ -191,27 +146,15 @@
     <t xml:space="preserve"> Atelier 8 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 15 mars </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Cryptage et sécurité </t>
   </si>
   <si>
-    <t xml:space="preserve"> 22-mars </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Gestion des accès </t>
   </si>
   <si>
-    <t xml:space="preserve"> 27 mars </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Temps travail </t>
   </si>
   <si>
-    <t xml:space="preserve"> 03 avr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 5.1, 5.2 </t>
   </si>
   <si>
@@ -224,15 +167,9 @@
     <t xml:space="preserve"> Atelier 9</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05 avr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ateliers fonctions </t>
   </si>
   <si>
-    <t xml:space="preserve"> 10 avr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Déclencheurs </t>
   </si>
   <si>
@@ -242,57 +179,30 @@
     <t xml:space="preserve"> Atelier 9 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 12 avr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Atelier déclencheurs </t>
   </si>
   <si>
-    <t xml:space="preserve"> 17 avr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Procedure, transactions et gestion d'erreurs </t>
   </si>
   <si>
-    <t xml:space="preserve"> 22 avr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ateliers procédures </t>
   </si>
   <si>
     <t xml:space="preserve"> Atelier 11 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 24 avr </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26 avr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Révision </t>
   </si>
   <si>
     <t xml:space="preserve"> Atelier 11&lt;br/&gt;**TP à remettre** </t>
   </si>
   <si>
-    <t xml:space="preserve"> 01 mai </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 03 mai </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pratique d'examen </t>
   </si>
   <si>
-    <t xml:space="preserve"> 08 mai </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Retour sur la pratique d'examen </t>
   </si>
   <si>
-    <t xml:space="preserve"> 10 mai </t>
-  </si>
-  <si>
     <t xml:space="preserve"> **Examen final** </t>
   </si>
   <si>
@@ -306,19 +216,115 @@
   </si>
   <si>
     <t xml:space="preserve"> Opérations arithmétiques, chaînes, REGEX </t>
+  </si>
+  <si>
+    <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>2025-01-28</t>
+  </si>
+  <si>
+    <t>2025-01-30</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
+    <t>2025-02-25</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>2025-03-11</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>2025-03-20</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>2025-05-08</t>
+  </si>
+  <si>
+    <t>2025-05-13</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -341,8 +347,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,18 +687,19 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -722,49 +730,49 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -774,49 +782,49 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D4">
         <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D5">
         <v>2.1</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -826,49 +834,49 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D6">
         <v>2.2000000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
+      <c r="C7" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D7">
         <v>2.2999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -878,49 +886,49 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D8">
         <v>2.4</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
+      <c r="C9" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D9">
         <v>2.5</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -930,49 +938,49 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D10">
         <v>2.5</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>34</v>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D11">
         <v>2.6</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -982,49 +990,49 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>39</v>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1034,49 +1042,49 @@
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>41</v>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>43</v>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1086,49 +1094,49 @@
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>47</v>
+      <c r="C16" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D16">
         <v>4.0999999999999996</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>51</v>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D17">
         <v>4.2</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1138,49 +1146,49 @@
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>53</v>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D18">
         <v>4.3</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>55</v>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1190,46 +1198,46 @@
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>57</v>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>62</v>
+      <c r="C21" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1239,49 +1247,49 @@
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>64</v>
+      <c r="C22" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D22">
         <v>5.2</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>68</v>
+      <c r="C23" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1291,49 +1299,49 @@
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>70</v>
+      <c r="C24" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D24">
         <v>5.3</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>72</v>
+      <c r="C25" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D25">
         <v>5.3</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1343,46 +1351,46 @@
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>75</v>
+      <c r="C26" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>76</v>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1392,49 +1400,49 @@
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
-        <v>79</v>
+      <c r="C28" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
-        <v>80</v>
+      <c r="C29" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1444,49 +1452,49 @@
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
-        <v>82</v>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>84</v>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/bd1/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA6FAA3-3D96-B644-9381-69DC077765B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1A88E1-37F5-6746-BD1A-82E5558F1EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{A6EAA84D-6E98-BB4B-8698-E4F48E48897D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="91">
   <si>
     <t xml:space="preserve"> Cours </t>
   </si>
@@ -92,9 +92,6 @@
     <t xml:space="preserve"> Requête CRUD </t>
   </si>
   <si>
-    <t xml:space="preserve"> Atelier 3 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Atelier 4 - formatif formel </t>
   </si>
   <si>
@@ -306,6 +303,12 @@
   </si>
   <si>
     <t>2025-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atelier 3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atelier 3b</t>
   </si>
 </sst>
 </file>
@@ -687,7 +690,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,7 +702,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -731,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -740,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -757,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -783,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>1.5</v>
@@ -809,7 +812,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>2.1</v>
@@ -818,10 +821,10 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -835,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>2.2000000000000002</v>
@@ -847,10 +850,10 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -861,22 +864,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>2.2999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -887,22 +890,22 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>2.4</v>
       </c>
       <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -913,13 +916,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>2.5</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -928,7 +931,7 @@
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -939,19 +942,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>2.5</v>
       </c>
       <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -965,22 +968,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>2.6</v>
       </c>
       <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -991,13 +994,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -1006,7 +1009,7 @@
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1017,13 +1020,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -1043,13 +1046,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -1069,16 +1072,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -1095,19 +1098,19 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16">
         <v>4.0999999999999996</v>
       </c>
       <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>34</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
@@ -1121,22 +1124,22 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17">
         <v>4.2</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1147,13 +1150,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>4.3</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1173,13 +1176,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1199,19 +1202,19 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
         <v>39</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>40</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1222,13 +1225,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1248,22 +1251,22 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22">
         <v>5.2</v>
       </c>
       <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
         <v>44</v>
       </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1274,13 +1277,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1300,13 +1303,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24">
         <v>5.3</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1315,7 +1318,7 @@
         <v>9</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1326,19 +1329,19 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25">
         <v>5.3</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" t="s">
-        <v>50</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
@@ -1352,13 +1355,13 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1378,13 +1381,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1401,22 +1404,22 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1427,13 +1430,13 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1453,13 +1456,13 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1479,13 +1482,13 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/bd1/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1A88E1-37F5-6746-BD1A-82E5558F1EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11108B3E-50CE-184B-9B5F-D08067AE1E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{A6EAA84D-6E98-BB4B-8698-E4F48E48897D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
   <si>
     <t xml:space="preserve"> Cours </t>
   </si>
@@ -213,96 +213,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Opérations arithmétiques, chaînes, REGEX </t>
-  </si>
-  <si>
-    <t>2025-01-21</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>2025-01-28</t>
-  </si>
-  <si>
-    <t>2025-01-30</t>
-  </si>
-  <si>
-    <t>2025-02-04</t>
-  </si>
-  <si>
-    <t>2025-02-06</t>
-  </si>
-  <si>
-    <t>2025-02-11</t>
-  </si>
-  <si>
-    <t>2025-02-13</t>
-  </si>
-  <si>
-    <t>2025-02-18</t>
-  </si>
-  <si>
-    <t>2025-02-20</t>
-  </si>
-  <si>
-    <t>2025-02-25</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>2025-03-11</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>2025-03-18</t>
-  </si>
-  <si>
-    <t>2025-03-20</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>2025-04-01</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>2025-04-22</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>2025-05-06</t>
-  </si>
-  <si>
-    <t>2025-05-08</t>
-  </si>
-  <si>
-    <t>2025-05-13</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
   </si>
   <si>
     <t xml:space="preserve"> Atelier 3a</t>
@@ -315,19 +225,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -338,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -346,13 +250,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,7 +615,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -733,8 +658,8 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>59</v>
+      <c r="C2" s="1">
+        <v>46038.427083333336</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -759,8 +684,8 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>60</v>
+      <c r="C3" s="1">
+        <v>46042.385416666664</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -785,8 +710,8 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>61</v>
+      <c r="C4" s="1">
+        <v>46045.427083333336</v>
       </c>
       <c r="D4">
         <v>1.5</v>
@@ -811,8 +736,8 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>62</v>
+      <c r="C5" s="1">
+        <v>46049.385416666664</v>
       </c>
       <c r="D5">
         <v>2.1</v>
@@ -824,7 +749,7 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -837,8 +762,8 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>63</v>
+      <c r="C6" s="1">
+        <v>46052.427083333336</v>
       </c>
       <c r="D6">
         <v>2.2000000000000002</v>
@@ -850,10 +775,10 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -863,8 +788,8 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>64</v>
+      <c r="C7" s="1">
+        <v>46056.385416666664</v>
       </c>
       <c r="D7">
         <v>2.2999999999999998</v>
@@ -879,7 +804,7 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -889,8 +814,8 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>65</v>
+      <c r="C8" s="1">
+        <v>46059.427083333336</v>
       </c>
       <c r="D8">
         <v>2.4</v>
@@ -915,8 +840,8 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>66</v>
+      <c r="C9" s="1">
+        <v>46063.385416666664</v>
       </c>
       <c r="D9">
         <v>2.5</v>
@@ -941,8 +866,8 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>67</v>
+      <c r="C10" s="1">
+        <v>46066.427083333336</v>
       </c>
       <c r="D10">
         <v>2.5</v>
@@ -967,8 +892,8 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>68</v>
+      <c r="C11" s="1">
+        <v>46070.385416666664</v>
       </c>
       <c r="D11">
         <v>2.6</v>
@@ -993,8 +918,8 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>69</v>
+      <c r="C12" s="1">
+        <v>46073.427083333336</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1019,8 +944,8 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>70</v>
+      <c r="C13" s="1">
+        <v>46077.385416666664</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -1045,8 +970,8 @@
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>71</v>
+      <c r="C14" s="1">
+        <v>46080.427083333336</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1071,8 +996,8 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>72</v>
+      <c r="C15" s="1">
+        <v>46091.385416666664</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -1097,8 +1022,8 @@
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>73</v>
+      <c r="C16" s="1">
+        <v>46094.427083333336</v>
       </c>
       <c r="D16">
         <v>4.0999999999999996</v>
@@ -1123,8 +1048,8 @@
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>74</v>
+      <c r="C17" s="1">
+        <v>46098.385416666664</v>
       </c>
       <c r="D17">
         <v>4.2</v>
@@ -1149,8 +1074,8 @@
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>75</v>
+      <c r="C18" s="1">
+        <v>46101.427083333336</v>
       </c>
       <c r="D18">
         <v>4.3</v>
@@ -1175,8 +1100,8 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>76</v>
+      <c r="C19" s="1">
+        <v>46108.385416666664</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1201,8 +1126,8 @@
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>77</v>
+      <c r="C20" s="1">
+        <v>46112.385416666664</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
@@ -1224,8 +1149,8 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>78</v>
+      <c r="C21" s="1">
+        <v>46119.385416666664</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1250,8 +1175,8 @@
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>79</v>
+      <c r="C22" s="1">
+        <v>46122.427083333336</v>
       </c>
       <c r="D22">
         <v>5.2</v>
@@ -1276,8 +1201,8 @@
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>80</v>
+      <c r="C23" s="1">
+        <v>46126.385416666664</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1302,8 +1227,8 @@
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>81</v>
+      <c r="C24" s="1">
+        <v>46129.427083333336</v>
       </c>
       <c r="D24">
         <v>5.3</v>
@@ -1328,8 +1253,8 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>82</v>
+      <c r="C25" s="1">
+        <v>46133.385416666664</v>
       </c>
       <c r="D25">
         <v>5.3</v>
@@ -1354,8 +1279,8 @@
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>83</v>
+      <c r="C26" s="1">
+        <v>46135.427083333336</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1380,8 +1305,8 @@
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>84</v>
+      <c r="C27" s="1">
+        <v>46140.427083333336</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1403,8 +1328,8 @@
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>85</v>
+      <c r="C28" s="1">
+        <v>46147.385416666664</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1429,8 +1354,8 @@
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>86</v>
+      <c r="C29" s="1">
+        <v>46150.427083333336</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -1455,8 +1380,8 @@
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>87</v>
+      <c r="C30" s="1">
+        <v>46154.385416666664</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1481,8 +1406,8 @@
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>88</v>
+      <c r="C31" s="2">
+        <v>46157.427083333336</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
